--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\Production files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5710CDB-66B3-4DFF-8AB7-52A08D999EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7F3BA-4606-4B83-A407-4A806693780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="706">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2829,12 +2829,19 @@
     <t>Solomon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>EZLN</t>
+  </si>
+  <si>
+    <t>Hundred Schools of thoughts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2972,6 +2979,13 @@
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3250,6 +3264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3257,6 +3274,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3265,32 +3288,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3299,31 +3328,16 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3903,10 +3917,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="3" t="s">
         <v>364</v>
       </c>
@@ -3921,10 +3935,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -6106,7 +6120,7 @@
       <c r="I4" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="59"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6247,7 +6261,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6296,7 +6310,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" t="s">
         <v>655</v>
       </c>
       <c r="E3" t="s">
@@ -6327,6 +6341,9 @@
       <c r="D5" t="s">
         <v>674</v>
       </c>
+      <c r="J5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6376,7 +6393,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" t="s">
         <v>662</v>
       </c>
       <c r="B10" t="s">
@@ -6420,7 +6437,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" t="s">
         <v>666</v>
       </c>
       <c r="B14" t="s">
@@ -6478,8 +6495,8 @@
       <c r="A19" t="s">
         <v>671</v>
       </c>
-      <c r="B19" t="s">
-        <v>690</v>
+      <c r="B19" s="60" t="s">
+        <v>704</v>
       </c>
       <c r="D19" t="s">
         <v>681</v>
@@ -6508,493 +6525,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="7">
         <v>8800</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="39" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="38"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="7">
         <v>7700</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="38"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="44" t="s">
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="38"/>
+      <c r="T2" s="41"/>
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="7">
         <v>6400</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="44" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="44" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="7">
         <v>5100</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="43" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="44" t="s">
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="44" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="41"/>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="7">
         <v>3100</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="44" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="45" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="38"/>
+      <c r="T5" s="41"/>
     </row>
     <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="7">
         <v>2350</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="43" t="s">
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="45" t="s">
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="7">
         <v>1600</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="46" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="49" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="45" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
     </row>
     <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="7">
         <v>1150</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="50" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="51" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="49" t="s">
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="45" t="s">
+      <c r="Q8" s="41"/>
+      <c r="R8" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="38"/>
+      <c r="S8" s="41"/>
       <c r="T8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="7">
         <v>780</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="49" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="49" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="45" t="s">
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="38"/>
+      <c r="T9" s="41"/>
     </row>
     <row r="10" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="7">
         <v>485</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="49" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="49" t="s">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="7">
         <v>375</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="49" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="49" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="49" t="s">
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="49" t="s">
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="38"/>
+      <c r="T11" s="41"/>
     </row>
     <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="7">
         <v>275</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="44" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="49" t="s">
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="53" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
     </row>
     <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="7">
         <v>175</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="44" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="54" t="s">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="54" t="s">
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="7">
         <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="44" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39" t="s">
+      <c r="I14" s="41"/>
+      <c r="J14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="54" t="s">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
     </row>
     <row r="15" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="7">
@@ -7006,95 +7023,95 @@
       <c r="D15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
       <c r="Q15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="54" t="s">
+      <c r="R15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
     </row>
     <row r="16" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="7">
         <v>35</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="39" t="s">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="54" t="s">
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
     </row>
     <row r="17" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -28721,6 +28738,79 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="N13:Q13"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:T17"/>
     <mergeCell ref="A15:A16"/>
@@ -28731,79 +28821,6 @@
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7F3BA-4606-4B83-A407-4A806693780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3033107-C233-4A08-B23B-FAD95DF9D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="734">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2722,10 +2722,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Venice, Genoese</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Byzantium</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2830,10 +2826,127 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>EZLN</t>
-  </si>
-  <si>
     <t>Hundred Schools of thoughts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qin Zhi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fan Wang &amp; Daimyo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Centralisation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow bandana Revolt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Yang Ming</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gu Yan Wu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Yi  Xian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Meji </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IJP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sane Japan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hinduism</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trader states</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Islamic Golden Age</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Sword of Prophet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sultanates</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt history Egypt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nasser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carthage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berbers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nubia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELZN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt history Cathage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ottoman/Timur</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3166,7 +3279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3267,6 +3380,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3274,12 +3390,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3288,10 +3398,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3300,44 +3453,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3917,10 +4033,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="3" t="s">
         <v>364</v>
       </c>
@@ -3935,10 +4051,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -6025,8 +6141,8 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:J1"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6076,7 +6192,7 @@
       <c r="G2" t="s">
         <v>116</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>649</v>
       </c>
     </row>
@@ -6134,7 +6250,7 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="61" t="s">
         <v>148</v>
       </c>
       <c r="J5" s="19" t="s">
@@ -6261,7 +6377,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6300,21 +6416,30 @@
         <v>654</v>
       </c>
       <c r="B2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
         <v>673</v>
+      </c>
+      <c r="F2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H2" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>655</v>
       </c>
-      <c r="E3" t="s">
-        <v>703</v>
+      <c r="F3" t="s">
+        <v>702</v>
       </c>
       <c r="G3" t="s">
         <v>672</v>
@@ -6325,10 +6450,16 @@
         <v>656</v>
       </c>
       <c r="B4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D4" t="s">
         <v>676</v>
+      </c>
+      <c r="F4" t="s">
+        <v>727</v>
+      </c>
+      <c r="J4" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,13 +6467,19 @@
         <v>657</v>
       </c>
       <c r="B5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D5" t="s">
         <v>674</v>
       </c>
+      <c r="F5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G5" t="s">
+        <v>719</v>
+      </c>
       <c r="J5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6350,13 +6487,22 @@
         <v>658</v>
       </c>
       <c r="B6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D6" t="s">
         <v>675</v>
+      </c>
+      <c r="F6" t="s">
+        <v>729</v>
+      </c>
+      <c r="G6" t="s">
+        <v>720</v>
+      </c>
+      <c r="J6" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,10 +6510,13 @@
         <v>659</v>
       </c>
       <c r="C7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D7" t="s">
-        <v>677</v>
+        <v>718</v>
+      </c>
+      <c r="F7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6375,10 +6524,16 @@
         <v>660</v>
       </c>
       <c r="C8" t="s">
-        <v>695</v>
-      </c>
-      <c r="D8" t="s">
-        <v>680</v>
+        <v>694</v>
+      </c>
+      <c r="F8" t="s">
+        <v>723</v>
+      </c>
+      <c r="G8" t="s">
+        <v>723</v>
+      </c>
+      <c r="J8" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6386,10 +6541,19 @@
         <v>661</v>
       </c>
       <c r="B9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D9" t="s">
-        <v>678</v>
+        <v>677</v>
+      </c>
+      <c r="F9" t="s">
+        <v>723</v>
+      </c>
+      <c r="G9" t="s">
+        <v>723</v>
+      </c>
+      <c r="J9" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6397,13 +6561,22 @@
         <v>662</v>
       </c>
       <c r="B10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D10" t="s">
-        <v>683</v>
+        <v>682</v>
+      </c>
+      <c r="F10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G10" t="s">
+        <v>723</v>
+      </c>
+      <c r="J10" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6411,7 +6584,10 @@
         <v>663</v>
       </c>
       <c r="C11" t="s">
-        <v>697</v>
+        <v>696</v>
+      </c>
+      <c r="J11" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6419,7 +6595,7 @@
         <v>664</v>
       </c>
       <c r="D12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6427,13 +6603,22 @@
         <v>665</v>
       </c>
       <c r="B13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D13" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="F13" t="s">
+        <v>725</v>
+      </c>
+      <c r="G13" t="s">
+        <v>733</v>
+      </c>
+      <c r="J13" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6441,13 +6626,19 @@
         <v>666</v>
       </c>
       <c r="B14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D14" t="s">
-        <v>682</v>
+        <v>681</v>
+      </c>
+      <c r="G14" t="s">
+        <v>721</v>
+      </c>
+      <c r="J14" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6455,10 +6646,16 @@
         <v>667</v>
       </c>
       <c r="B15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C15" t="s">
-        <v>691</v>
+        <v>690</v>
+      </c>
+      <c r="F15" t="s">
+        <v>732</v>
+      </c>
+      <c r="J15" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6466,40 +6663,61 @@
         <v>668</v>
       </c>
       <c r="B16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C16" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="G16" t="s">
+        <v>721</v>
+      </c>
+      <c r="J16" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>669</v>
       </c>
       <c r="C17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D17" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="J17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>670</v>
       </c>
       <c r="C18" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="F18" t="s">
+        <v>726</v>
+      </c>
+      <c r="G18" t="s">
+        <v>722</v>
+      </c>
+      <c r="J18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>671</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>704</v>
+      <c r="B19" s="34" t="s">
+        <v>731</v>
       </c>
       <c r="D19" t="s">
-        <v>681</v>
+        <v>680</v>
+      </c>
+      <c r="J19" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -6525,493 +6743,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="7">
         <v>8800</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="42" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="41"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="7">
         <v>7700</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="41"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="41"/>
+      <c r="T2" s="40"/>
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="7">
         <v>6400</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="47" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="47" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="7">
         <v>5100</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="44" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="47" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="47" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="7">
         <v>3100</v>
       </c>
       <c r="C5" s="49"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="57" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="47" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="52" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="41"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="7">
         <v>2350</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="44" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="52" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="7">
         <v>1600</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="54" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="48" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="52" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="40"/>
     </row>
     <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7">
         <v>1150</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="55" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="56" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="48" t="s">
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="52" t="s">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="41"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="7">
         <v>780</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="53" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="48" t="s">
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="52" t="s">
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="41"/>
+      <c r="T9" s="40"/>
     </row>
     <row r="10" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="7">
         <v>485</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="48" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="48" t="s">
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
     </row>
     <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="7">
         <v>375</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="51" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="48" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="48" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="48" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="48" t="s">
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="41"/>
+      <c r="T11" s="40"/>
     </row>
     <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="7">
         <v>275</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="47" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="48" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="50" t="s">
+      <c r="O12" s="40"/>
+      <c r="P12" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="40"/>
     </row>
     <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="7">
         <v>175</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="47" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="47" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="43" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="43" t="s">
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="7">
         <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="47" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="43" t="s">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="7">
@@ -7023,95 +7241,95 @@
       <c r="D15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="41"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="43" t="s">
+      <c r="R15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
     </row>
     <row r="16" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="7">
         <v>35</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="42" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="43" t="s">
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -28738,6 +28956,79 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:T17"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:T4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="J1:N1"/>
@@ -28748,79 +29039,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:T17"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3033107-C233-4A08-B23B-FAD95DF9D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247C461-D7FE-4C2D-B196-67E5A3172AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
@@ -3279,7 +3279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3390,6 +3390,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3398,32 +3404,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,29 +3444,14 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4071,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E982B-F2BD-4380-9554-C8769344FDC4}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6250,7 +6247,7 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" t="s">
         <v>148</v>
       </c>
       <c r="J5" s="19" t="s">
@@ -6377,7 +6374,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6734,7 +6731,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6749,36 +6746,36 @@
       <c r="B1" s="7">
         <v>8800</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="41" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="40"/>
+      <c r="P1" s="42"/>
       <c r="Q1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
@@ -6788,33 +6785,33 @@
       <c r="C2" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="40"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="46" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="40"/>
+      <c r="T2" s="42"/>
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -6826,29 +6823,29 @@
       <c r="C3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="46" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="46" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -6858,29 +6855,29 @@
       <c r="C4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="46" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="46" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
@@ -6889,66 +6886,66 @@
       <c r="B5" s="7">
         <v>3100</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="50" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="46" t="s">
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="47" t="s">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="40"/>
+      <c r="T5" s="42"/>
     </row>
     <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="7">
         <v>2350</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="47" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -6957,65 +6954,65 @@
       <c r="B7" s="7">
         <v>1600</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="48" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="51" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="47" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="42"/>
     </row>
     <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="7">
         <v>1150</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="52" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="53" t="s">
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="51" t="s">
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="47" t="s">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="40"/>
+      <c r="S8" s="42"/>
       <c r="T8" s="9" t="s">
         <v>49</v>
       </c>
@@ -7027,68 +7024,68 @@
       <c r="B9" s="7">
         <v>780</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="51" t="s">
+      <c r="G9" s="42"/>
+      <c r="H9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="51" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="47" t="s">
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="40"/>
+      <c r="T9" s="42"/>
     </row>
     <row r="10" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="7">
         <v>485</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="51" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="51" t="s">
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
     </row>
     <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -7097,36 +7094,36 @@
       <c r="B11" s="7">
         <v>375</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="51" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="51" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="51" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="51" t="s">
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="40"/>
+      <c r="T11" s="42"/>
     </row>
     <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
@@ -7134,31 +7131,31 @@
         <v>275</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="46" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="51" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="55" t="s">
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="40"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="42"/>
     </row>
     <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -7168,33 +7165,33 @@
         <v>175</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="46" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="56" t="s">
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="56" t="s">
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="40"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="42"/>
     </row>
     <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
@@ -7204,29 +7201,29 @@
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="46" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="56" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="40"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
     </row>
     <row r="15" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
@@ -7241,32 +7238,32 @@
       <c r="D15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
       <c r="Q15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
     </row>
     <row r="16" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -7276,29 +7273,29 @@
       <c r="C16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="41" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41" t="s">
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="56" t="s">
+      <c r="O16" s="41"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="40"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
@@ -7307,26 +7304,26 @@
       <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
@@ -28956,6 +28953,79 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="N13:Q13"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:T17"/>
     <mergeCell ref="A15:A16"/>
@@ -28966,79 +29036,6 @@
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247C461-D7FE-4C2D-B196-67E5A3172AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC1ABA-122A-428B-9C89-6AEDBCA5DF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Promotion" sheetId="8" r:id="rId5"/>
     <sheet name="Civ Design(Out of Policy)" sheetId="6" r:id="rId6"/>
     <sheet name="Civ Design(in Policy)" sheetId="12" r:id="rId7"/>
-    <sheet name="Technology Tree (2)" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
+    <sheet name="Technology Tree (2)" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="824">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2830,10 +2831,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Qin Zhi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhou</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2842,10 +2839,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Advanced Centralisation</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Yellow bandana Revolt</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2858,10 +2851,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Sun Yi  Xian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Meji </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2878,10 +2867,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Sane Japan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Hinduism</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2947,6 +2932,382 @@
   </si>
   <si>
     <t>Ottoman/Timur</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road to Nobility</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tang Song</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sane Japan/ROC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinhai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美洲文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地中海文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北非文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南非文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西亚文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游牧文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南亚文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东亚文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾格里</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尔特/北欧神系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高卢/日耳曼文化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰克/神罗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗制度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新教各教派</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳粹德国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美利坚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊/罗马神系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政罗马</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅典</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯巴达/马其顿/罗马</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜占庭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗制度/耶路撒冷骑士国家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利各邦</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利统一/希腊独立</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>法西斯意大利</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉伯黄金时代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一哈里发国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美索不达米亚神系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯末尔土耳其</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳赛尔主义</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸之路？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美索不达米亚诸城邦/波斯帝国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>教法制度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕夏制度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚伯拉罕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>易卜拉欣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商朝卜算</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>周朝分封</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百家思想</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>军功爵制度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>藩王/大名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐宋科举</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（架空）黄巾天师</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>心学改革</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾炎武，王夫之等思想</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛亥革命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光头民国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>政党政府日本/孙文民国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>军国主义日本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>东大</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃及神系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦太基</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉尼拔迦太基</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃米尔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏柏尔国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉萨同盟/维京扩张</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>东德/苏联/北欧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>马赫诺的黑军</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南斯拉夫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>所罗门教会/阿吞改革</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>威尼斯，热那亚等</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（架空）迦太基延续</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多神</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一神</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>酋邦</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>求智</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>求战</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>求财</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>封建</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神权</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>教改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>革命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保守</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>法西斯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无政府</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>明治帝国主义/（架空）完全体天朝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英法殖民/德，俄陆权</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西葡殖民帝国/奥匈多元帝国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥斯曼海权/帖木儿陆权</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（架空）埃及延续/（架空）埃塞俄比亚帝国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>马穆鲁克/（架空）埃及神系延续</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3390,12 +3751,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3404,38 +3759,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3444,13 +3793,25 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6373,8 +6734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B0658-4D5C-4512-8109-5AAF92D8522D}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6422,19 +6783,25 @@
         <v>673</v>
       </c>
       <c r="F2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="I2" t="s">
-        <v>717</v>
+        <v>713</v>
+      </c>
+      <c r="J2" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>655</v>
       </c>
+      <c r="D3" t="s">
+        <v>672</v>
+      </c>
       <c r="F3" t="s">
         <v>702</v>
       </c>
@@ -6453,10 +6820,10 @@
         <v>676</v>
       </c>
       <c r="F4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6470,10 +6837,10 @@
         <v>674</v>
       </c>
       <c r="F5" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G5" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J5" t="s">
         <v>703</v>
@@ -6493,13 +6860,13 @@
         <v>675</v>
       </c>
       <c r="F6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J6" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6510,10 +6877,10 @@
         <v>693</v>
       </c>
       <c r="D7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6524,13 +6891,13 @@
         <v>694</v>
       </c>
       <c r="F8" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G8" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6544,13 +6911,13 @@
         <v>677</v>
       </c>
       <c r="F9" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J9" t="s">
-        <v>707</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6567,13 +6934,13 @@
         <v>682</v>
       </c>
       <c r="F10" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G10" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6584,7 +6951,7 @@
         <v>696</v>
       </c>
       <c r="J11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6594,6 +6961,9 @@
       <c r="D12" t="s">
         <v>678</v>
       </c>
+      <c r="J12" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6609,13 +6979,13 @@
         <v>679</v>
       </c>
       <c r="F13" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G13" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,10 +7002,10 @@
         <v>681</v>
       </c>
       <c r="G14" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J14" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,10 +7019,10 @@
         <v>690</v>
       </c>
       <c r="F15" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J15" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6666,10 +7036,10 @@
         <v>701</v>
       </c>
       <c r="G16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J16" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6683,7 +7053,7 @@
         <v>678</v>
       </c>
       <c r="J17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6694,13 +7064,13 @@
         <v>700</v>
       </c>
       <c r="F18" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G18" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J18" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6708,13 +7078,10 @@
         <v>671</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D19" t="s">
         <v>680</v>
-      </c>
-      <c r="J19" t="s">
-        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -6724,6 +7091,384 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F2" t="s">
+        <v>765</v>
+      </c>
+      <c r="H2" t="s">
+        <v>774</v>
+      </c>
+      <c r="J2" t="s">
+        <v>788</v>
+      </c>
+      <c r="M2" t="s">
+        <v>744</v>
+      </c>
+      <c r="N2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F3" t="s">
+        <v>773</v>
+      </c>
+      <c r="J3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D4" t="s">
+        <v>755</v>
+      </c>
+      <c r="F4" t="s">
+        <v>769</v>
+      </c>
+      <c r="H4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J4" t="s">
+        <v>789</v>
+      </c>
+      <c r="P4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F5" t="s">
+        <v>763</v>
+      </c>
+      <c r="H5" t="s">
+        <v>776</v>
+      </c>
+      <c r="J5" t="s">
+        <v>763</v>
+      </c>
+      <c r="P5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F6" t="s">
+        <v>764</v>
+      </c>
+      <c r="H6" t="s">
+        <v>777</v>
+      </c>
+      <c r="J6" t="s">
+        <v>790</v>
+      </c>
+      <c r="P6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" t="s">
+        <v>793</v>
+      </c>
+      <c r="D7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F7" t="s">
+        <v>768</v>
+      </c>
+      <c r="J7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B8" t="s">
+        <v>747</v>
+      </c>
+      <c r="F8" t="s">
+        <v>791</v>
+      </c>
+      <c r="H8" t="s">
+        <v>778</v>
+      </c>
+      <c r="J8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D9" t="s">
+        <v>758</v>
+      </c>
+      <c r="F9" t="s">
+        <v>771</v>
+      </c>
+      <c r="H9" t="s">
+        <v>779</v>
+      </c>
+      <c r="J9" t="s">
+        <v>771</v>
+      </c>
+      <c r="P9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D10" t="s">
+        <v>759</v>
+      </c>
+      <c r="F10" t="s">
+        <v>770</v>
+      </c>
+      <c r="H10" t="s">
+        <v>780</v>
+      </c>
+      <c r="J10" t="s">
+        <v>823</v>
+      </c>
+      <c r="P10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>809</v>
+      </c>
+      <c r="B11" t="s">
+        <v>749</v>
+      </c>
+      <c r="H11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>810</v>
+      </c>
+      <c r="D12" t="s">
+        <v>760</v>
+      </c>
+      <c r="H12" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" t="s">
+        <v>819</v>
+      </c>
+      <c r="D13" t="s">
+        <v>820</v>
+      </c>
+      <c r="F13" t="s">
+        <v>821</v>
+      </c>
+      <c r="H13" t="s">
+        <v>818</v>
+      </c>
+      <c r="J13" t="s">
+        <v>822</v>
+      </c>
+      <c r="P13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>812</v>
+      </c>
+      <c r="B14" t="s">
+        <v>750</v>
+      </c>
+      <c r="D14" t="s">
+        <v>761</v>
+      </c>
+      <c r="H14" t="s">
+        <v>783</v>
+      </c>
+      <c r="P14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>813</v>
+      </c>
+      <c r="B15" t="s">
+        <v>753</v>
+      </c>
+      <c r="H15" t="s">
+        <v>785</v>
+      </c>
+      <c r="J15" t="s">
+        <v>799</v>
+      </c>
+      <c r="P15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>814</v>
+      </c>
+      <c r="B16" t="s">
+        <v>752</v>
+      </c>
+      <c r="F16" t="s">
+        <v>766</v>
+      </c>
+      <c r="H16" t="s">
+        <v>784</v>
+      </c>
+      <c r="P16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>815</v>
+      </c>
+      <c r="B17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D17" t="s">
+        <v>762</v>
+      </c>
+      <c r="F17" t="s">
+        <v>766</v>
+      </c>
+      <c r="H17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>816</v>
+      </c>
+      <c r="B18" t="s">
+        <v>794</v>
+      </c>
+      <c r="D18" t="s">
+        <v>796</v>
+      </c>
+      <c r="F18" t="s">
+        <v>767</v>
+      </c>
+      <c r="H18" t="s">
+        <v>787</v>
+      </c>
+      <c r="J18" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>817</v>
+      </c>
+      <c r="B19" t="s">
+        <v>795</v>
+      </c>
+      <c r="D19" t="s">
+        <v>680</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE3C2D8-3342-4AC1-9490-3D0A610DAD96}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6746,36 +7491,36 @@
       <c r="B1" s="7">
         <v>8800</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="43" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="42"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="42"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
@@ -6785,33 +7530,33 @@
       <c r="C2" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="42"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="48" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="42"/>
+      <c r="T2" s="40"/>
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -6823,29 +7568,29 @@
       <c r="C3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="48" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="48" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -6855,29 +7600,29 @@
       <c r="C4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="48" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="48" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="42"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
@@ -6886,66 +7631,66 @@
       <c r="B5" s="7">
         <v>3100</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="58" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="48" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="53" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="42"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="7">
         <v>2350</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="53" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -6954,65 +7699,65 @@
       <c r="B7" s="7">
         <v>1600</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="55" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="49" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="53" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="40"/>
     </row>
     <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="7">
         <v>1150</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="56" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="57" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="49" t="s">
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="53" t="s">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="42"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="9" t="s">
         <v>49</v>
       </c>
@@ -7024,68 +7769,68 @@
       <c r="B9" s="7">
         <v>780</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="49" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="49" t="s">
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="53" t="s">
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="42"/>
+      <c r="T9" s="40"/>
     </row>
     <row r="10" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="7">
         <v>485</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="49" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="49" t="s">
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
     </row>
     <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -7094,36 +7839,36 @@
       <c r="B11" s="7">
         <v>375</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="49" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="49" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="49" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="49" t="s">
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="42"/>
+      <c r="T11" s="40"/>
     </row>
     <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
@@ -7131,31 +7876,31 @@
         <v>275</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="49" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="51" t="s">
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="42"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="40"/>
     </row>
     <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -7165,33 +7910,33 @@
         <v>175</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="48" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="48" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="44" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="44" t="s">
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
@@ -7201,29 +7946,29 @@
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="48" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="44" t="s">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
@@ -7238,32 +7983,32 @@
       <c r="D15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="44" t="s">
+      <c r="R15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
     </row>
     <row r="16" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -7273,29 +8018,29 @@
       <c r="C16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="43" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="44" t="s">
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
@@ -7304,26 +8049,26 @@
       <c r="B17" s="7">
         <v>0</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
@@ -28953,6 +29698,79 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:T17"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:T4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="J1:N1"/>
@@ -28963,79 +29781,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:T17"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF07948-4463-4E51-8A91-C64EE78F2897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB76D2-BBBD-497A-93FA-EF75C9249B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="680">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2471,10 +2471,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>新教各教派</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>法国</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2491,18 +2487,10 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>希腊/罗马神系</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>王政罗马</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>雅典</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>斯巴达/马其顿/罗马</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2535,10 +2523,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>美索不达米亚神系</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>凯末尔土耳其</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2547,10 +2531,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>丝绸之路？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>美索不达米亚诸城邦/波斯帝国</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2563,10 +2543,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>亚伯拉罕</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>易卜拉欣</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2599,14 +2575,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>心学改革</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾炎武，王夫之等思想</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>辛亥革命</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2711,10 +2679,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>教改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>人文</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2751,10 +2715,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>英法殖民/德，俄陆权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>西葡殖民帝国/奥匈多元帝国</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2796,6 +2756,66 @@
   </si>
   <si>
     <t>特色建筑/国家奇观/单位晋升</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊天上帝</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督教（扩张传教）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督教（牧首区）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>美索不达米亚神系/祆教</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊/罗马神系/密特拉教</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>古希腊哲学（雅典）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>加洛林文艺复兴</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸之路</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦巴第王国/意大利诸城邦</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>西罗马帝国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>心学改革/顾炎武，王夫之等思想</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新教/启蒙时代</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>英法海权/德，俄陆权</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿萨比亚</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3652,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E982B-F2BD-4380-9554-C8769344FDC4}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -5955,10 +5975,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5994,334 +6014,354 @@
     </row>
     <row r="2" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H2" t="s">
-        <v>618</v>
-      </c>
-      <c r="J2" t="s">
-        <v>632</v>
-      </c>
-      <c r="M2" t="s">
-        <v>588</v>
-      </c>
-      <c r="N2" t="s">
-        <v>577</v>
-      </c>
-      <c r="P2" t="s">
-        <v>570</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>636</v>
+      </c>
+      <c r="B3" t="s">
+        <v>589</v>
       </c>
       <c r="D3" t="s">
-        <v>616</v>
+        <v>670</v>
       </c>
       <c r="F3" t="s">
-        <v>617</v>
+        <v>669</v>
+      </c>
+      <c r="H3" t="s">
+        <v>612</v>
       </c>
       <c r="J3" t="s">
-        <v>641</v>
+        <v>624</v>
+      </c>
+      <c r="M3" t="s">
+        <v>588</v>
+      </c>
+      <c r="N3" t="s">
+        <v>577</v>
+      </c>
+      <c r="P3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B4" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="F4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H4" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="J4" t="s">
         <v>633</v>
       </c>
-      <c r="P4" t="s">
-        <v>573</v>
-      </c>
     </row>
     <row r="5" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>638</v>
+      </c>
+      <c r="B5" t="s">
+        <v>590</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H5" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="J5" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="P5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="D6" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="F6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H6" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="J6" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="P6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B7" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="D7" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="F7" t="s">
-        <v>612</v>
+        <v>605</v>
+      </c>
+      <c r="H7" t="s">
+        <v>615</v>
       </c>
       <c r="J7" t="s">
-        <v>636</v>
+        <v>626</v>
+      </c>
+      <c r="P7" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B8" t="s">
-        <v>591</v>
+        <v>629</v>
+      </c>
+      <c r="D8" t="s">
+        <v>634</v>
       </c>
       <c r="F8" t="s">
-        <v>635</v>
+        <v>673</v>
       </c>
       <c r="H8" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="J8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>642</v>
+      </c>
+      <c r="B9" t="s">
+        <v>591</v>
       </c>
       <c r="D9" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="F9" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="H9" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="J9" t="s">
-        <v>615</v>
-      </c>
-      <c r="P9" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="D10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H10" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="J10" t="s">
-        <v>667</v>
+        <v>610</v>
       </c>
       <c r="P10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="D11" t="s">
+        <v>600</v>
+      </c>
+      <c r="F11" t="s">
+        <v>609</v>
       </c>
       <c r="H11" t="s">
-        <v>625</v>
+        <v>618</v>
+      </c>
+      <c r="J11" t="s">
+        <v>657</v>
+      </c>
+      <c r="P11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>654</v>
+        <v>645</v>
+      </c>
+      <c r="B12" t="s">
+        <v>677</v>
       </c>
       <c r="D12" t="s">
-        <v>604</v>
+        <v>601</v>
+      </c>
+      <c r="F12" t="s">
+        <v>679</v>
       </c>
       <c r="H12" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>646</v>
+      </c>
+      <c r="B13" t="s">
+        <v>678</v>
+      </c>
+      <c r="D13" t="s">
+        <v>654</v>
+      </c>
+      <c r="F13" t="s">
         <v>655</v>
       </c>
-      <c r="B13" t="s">
-        <v>663</v>
-      </c>
-      <c r="D13" t="s">
-        <v>664</v>
-      </c>
-      <c r="F13" t="s">
-        <v>665</v>
-      </c>
       <c r="H13" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="J13" t="s">
-        <v>666</v>
-      </c>
-      <c r="P13" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H14" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="P14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H15" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="J15" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="P15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H16" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="P16" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" t="s">
         <v>606</v>
       </c>
-      <c r="F17" t="s">
-        <v>610</v>
-      </c>
       <c r="H17" t="s">
-        <v>630</v>
+        <v>622</v>
+      </c>
+      <c r="P17" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B18" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D18" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="F18" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H18" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="J18" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B19" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D19" t="s">
         <v>568</v>
       </c>
-      <c r="P19" s="23" t="s">
+    </row>
+    <row r="20" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="23" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6343,31 +6383,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B3" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB76D2-BBBD-497A-93FA-EF75C9249B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C51ECE-5CCB-458D-ADC2-3A4667372990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="686">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2743,10 +2743,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>突出特征：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>特色兵种</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2816,6 +2812,34 @@
   </si>
   <si>
     <t>阿萨比亚</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔猎文明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋文明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕文明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕/海洋文明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明发源：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始科技+建造速度</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -5977,13 +6001,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>581</v>
       </c>
@@ -6012,12 +6039,27 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="B2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>636</v>
       </c>
@@ -6025,10 +6067,10 @@
         <v>589</v>
       </c>
       <c r="D3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H3" t="s">
         <v>612</v>
@@ -6046,27 +6088,27 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>637</v>
       </c>
       <c r="B4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" t="s">
         <v>666</v>
-      </c>
-      <c r="D4" t="s">
-        <v>667</v>
       </c>
       <c r="F4" t="s">
         <v>611</v>
       </c>
       <c r="H4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J4" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>638</v>
       </c>
@@ -6089,15 +6131,15 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F6" t="s">
         <v>604</v>
@@ -6112,7 +6154,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>640</v>
       </c>
@@ -6135,7 +6177,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>641</v>
       </c>
@@ -6146,16 +6188,16 @@
         <v>634</v>
       </c>
       <c r="F8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J8" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>642</v>
       </c>
@@ -6163,7 +6205,7 @@
         <v>591</v>
       </c>
       <c r="D9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F9" t="s">
         <v>627</v>
@@ -6175,12 +6217,12 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>643</v>
       </c>
       <c r="B10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D10" t="s">
         <v>599</v>
@@ -6198,7 +6240,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>644</v>
       </c>
@@ -6221,29 +6263,29 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>645</v>
       </c>
       <c r="B12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D12" t="s">
         <v>601</v>
       </c>
       <c r="F12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H12" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>646</v>
       </c>
       <c r="B13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D13" t="s">
         <v>654</v>
@@ -6258,7 +6300,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>647</v>
       </c>
@@ -6275,7 +6317,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>648</v>
       </c>
@@ -6292,7 +6334,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>649</v>
       </c>
@@ -6309,7 +6351,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>650</v>
       </c>
@@ -6329,7 +6371,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>651</v>
       </c>
@@ -6349,7 +6391,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>652</v>
       </c>
@@ -6360,7 +6402,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P20" s="23" t="s">
         <v>578</v>
       </c>
@@ -6373,41 +6415,49 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF3EA9-8A80-49C3-85FB-59FE3F82CBFB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="B2" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B5" t="s">
         <v>663</v>
-      </c>
-      <c r="B4" t="s">
-        <v>664</v>
       </c>
     </row>
   </sheetData>
